--- a/Sources/DataStagingTeamPlanning.xlsx
+++ b/Sources/DataStagingTeamPlanning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hviktor\Documents\Courses\CSI4142-2021\Project2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yi/Desktop/DS_Phase2/Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB546A3A-2B60-4A50-BD86-AB2ACB49D33D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E251E7-6904-6142-A70E-A2ED2204404C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E856A244-1E33-4B30-A94F-FDDE8D23B711}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{E856A244-1E33-4B30-A94F-FDDE8D23B711}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Deliverable</t>
   </si>
@@ -94,17 +94,25 @@
   </si>
   <si>
     <t>Staging of Special Measures dimension</t>
+  </si>
+  <si>
+    <t>Junbo Tang</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yi Zhao</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -127,6 +135,13 @@
       <color theme="1"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -185,9 +200,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -203,7 +227,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -501,26 +525,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584A65FC-908C-4EFC-8CE7-D8AC718E3AB3}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="24.08984375" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
     <col min="5" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="29.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -543,128 +567,238 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="28">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9">
+        <v>44251</v>
+      </c>
+      <c r="D4" s="10">
+        <v>44252</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="28">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="10">
+        <v>44253</v>
+      </c>
+      <c r="D5" s="9">
+        <v>44281</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="28">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9">
+        <v>44254</v>
+      </c>
+      <c r="D6" s="9">
+        <v>44256</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.5</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="28">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9">
+        <v>44255</v>
+      </c>
+      <c r="D7" s="9">
+        <v>44256</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.5</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="28">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9">
+        <v>44257</v>
+      </c>
+      <c r="D8" s="9">
+        <v>44259</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="28">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="9">
+        <v>44258</v>
+      </c>
+      <c r="D9" s="9">
+        <v>44259</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="42">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9">
+        <v>44261</v>
+      </c>
+      <c r="D10" s="9">
+        <v>44261</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="28">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9">
+        <v>44262</v>
+      </c>
+      <c r="D11" s="9">
+        <v>44262</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="42">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9">
+        <v>44262</v>
+      </c>
+      <c r="D12" s="9">
+        <v>44262</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="42">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9">
+        <v>44263</v>
+      </c>
+      <c r="D13" s="9">
+        <v>44263</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="42">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="9">
+        <v>44263</v>
+      </c>
+      <c r="D14" s="9">
+        <v>44264</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -675,7 +809,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -684,6 +818,7 @@
       <c r="G16" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
